--- a/basic/Softmax.xlsx
+++ b/basic/Softmax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/peye9704_colorado_edu/Documents/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef11b9b1a4383f6/Documents/Dev/Projects/ai_by_hand_excel/ai-by-hand-excel/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="8_{D61AE1D2-C4DF-914F-BCEF-F71F2EF60856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA0966F-F4A5-E749-B706-E4DC88CAE03C}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{D61AE1D2-C4DF-914F-BCEF-F71F2EF60856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3295FDC3-483E-4770-88F9-F6C0E27D3FA0}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="22900" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Softmax" sheetId="4" r:id="rId1"/>
@@ -296,7 +296,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -524,39 +524,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4A0B3-6D10-0442-B216-41E66C445B40}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" customWidth="1"/>
+    <col min="5" max="5" width="2.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.46484375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.46484375" style="2" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.6640625" customWidth="1"/>
-    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.46484375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -575,7 +575,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>-1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0.23196931668407397</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="H9" s="8">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
@@ -817,7 +817,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N11" s="8">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="I12" s="9" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N13" s="8">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N14" s="8">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>8.533674259065846E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="O16" s="9" t="s">
         <v>0</v>
       </c>
@@ -899,12 +899,12 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="19.5" x14ac:dyDescent="0.75">
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B21" s="8">
         <v>0</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0.63612565445026181</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B22" s="8">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <v>5</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="H24" s="8">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0.21204188481675393</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="C25" s="6" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N26" s="8">
         <v>-1</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2.617801047120419E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="I27" s="6" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N28" s="8">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>7.8534031413612562E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="N29" s="8">
         <v>1</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2.356020942408377E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="O31" s="6" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" ht="15" x14ac:dyDescent="0.4">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1262,100 +1262,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A554A1-0554-9343-9C59-52B6FFBA54CF}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="116.83203125" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="116.796875" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="10.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
